--- a/puthere/myfile.xlsx
+++ b/puthere/myfile.xlsx
@@ -288,12 +288,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -301,6 +300,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,7 +597,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13"/>
+      <c r="A1" s="17"/>
       <c r="B1" s="14"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2894,7 +2894,7 @@
       </c>
     </row>
     <row r="158" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="16" t="s">
         <v>28</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -2902,7 +2902,7 @@
       </c>
       <c r="C158" s="6">
         <f t="shared" ref="C158:E158" si="0">C2+C14+C26+C38+C50+C62+C74+C86+C98+C110+C122+C134+C146</f>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D158" s="6">
         <f t="shared" si="0"/>
@@ -3112,9 +3112,9 @@
       </c>
     </row>
     <row r="170" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="15"/>
+      <c r="A170" s="13"/>
       <c r="B170" s="14"/>
-      <c r="C170" s="16"/>
+      <c r="C170" s="15"/>
       <c r="D170" s="14"/>
       <c r="E170" s="8"/>
     </row>
@@ -8930,11 +8930,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A134:A145"/>
-    <mergeCell ref="A146:A157"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="A158:A169"/>
     <mergeCell ref="A122:A133"/>
     <mergeCell ref="A14:A25"/>
     <mergeCell ref="A1:B1"/>
@@ -8947,6 +8942,11 @@
     <mergeCell ref="A62:A73"/>
     <mergeCell ref="A26:A37"/>
     <mergeCell ref="A38:A49"/>
+    <mergeCell ref="A134:A145"/>
+    <mergeCell ref="A146:A157"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="A158:A169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
